--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-FR065748.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-FR065748.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,196 +37,226 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>751684</x:t>
+    <x:t>636795</x:t>
   </x:si>
   <x:si>
     <x:t>Beverages and Catering</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15984</x:t>
+    <x:t>2017-01-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40630.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>883985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18423.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43713.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>696554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32719.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>916378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55492.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>729634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55684.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53794.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322766</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>840763</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289540</x:t>
+    <x:t>175818</x:t>
   </x:si>
   <x:si>
     <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-02-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43889.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>286720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30416.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33982.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>414948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>978258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48865.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42623.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>722379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9705.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58232.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45370.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272225</x:t>
+    <x:t>2017-08-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31701.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>532428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27982.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>209849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>304854</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -577,7 +607,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G12"/>
+  <x:dimension ref="A1:G14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -672,73 +702,73 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>20</x:v>
@@ -746,22 +776,22 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>13</x:v>
@@ -769,25 +799,25 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -810,53 +840,99 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
